--- a/00硬件/03格陆博/改车BOM-格陆博科技.xlsx
+++ b/00硬件/03格陆博/改车BOM-格陆博科技.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="0" windowWidth="15480" windowHeight="6735"/>
@@ -1078,7 +1078,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1120,7 +1120,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1155,7 +1155,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:J563"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
